--- a/z0bug_odoo/z0bug_odoo/data/modules.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/modules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">distro</t>
   </si>
   <si>
-    <t xml:space="preserve">G=='librerp' and load_vat</t>
+    <t xml:space="preserve">G=='librerp' and load_vat and V==12</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_eu_account,account_duedates,l10n_it_coa_base,l10n_it_efattura_sdi_2c</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">z0bug.modules_08</t>
   </si>
   <si>
-    <t xml:space="preserve">G=='zero' and load_vat</t>
+    <t xml:space="preserve">G=='zero' and load_vat and V==12</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_eu_account,account_duedates,l10n_it_coa_base</t>
@@ -118,19 +118,28 @@
     <t xml:space="preserve">load_account_plus</t>
   </si>
   <si>
-    <t xml:space="preserve">account_move_template,,l10n_it_balance,l10n_it_mastrini</t>
+    <t xml:space="preserve">account_move_template</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.modules_10</t>
   </si>
   <si>
+    <t xml:space="preserve">V==12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_balance,l10n_it_mastrini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.modules_11</t>
+  </si>
+  <si>
     <t xml:space="preserve">load_assets</t>
   </si>
   <si>
     <t xml:space="preserve">assets_management_plus,l10n_it_balance_assets</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_11</t>
+    <t xml:space="preserve">z0bug.modules_12</t>
   </si>
   <si>
     <t xml:space="preserve">load_conai</t>
@@ -139,19 +148,19 @@
     <t xml:space="preserve">l10n_it_conai</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_12</t>
+    <t xml:space="preserve">z0bug.modules_13</t>
   </si>
   <si>
     <t xml:space="preserve">load_data_assets</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_13</t>
+    <t xml:space="preserve">z0bug.modules_14</t>
   </si>
   <si>
     <t xml:space="preserve">load_data_coa</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_14</t>
+    <t xml:space="preserve">z0bug.modules_15</t>
   </si>
   <si>
     <t xml:space="preserve">load_data_invoice</t>
@@ -163,19 +172,19 @@
     <t xml:space="preserve">l10n_it_edi</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_15</t>
+    <t xml:space="preserve">z0bug.modules_16</t>
   </si>
   <si>
     <t xml:space="preserve">load_data_partner</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_16</t>
+    <t xml:space="preserve">z0bug.modules_17</t>
   </si>
   <si>
     <t xml:space="preserve">load_data_product</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_17</t>
+    <t xml:space="preserve">z0bug.modules_18</t>
   </si>
   <si>
     <t xml:space="preserve">load_data_purchase_order</t>
@@ -184,7 +193,7 @@
     <t xml:space="preserve">load_purchase</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_18</t>
+    <t xml:space="preserve">z0bug.modules_19</t>
   </si>
   <si>
     <t xml:space="preserve">load_einvoice</t>
@@ -193,7 +202,7 @@
     <t xml:space="preserve">account,l10n_it_fatturapa_in,l10n_it_fatturapa_out,l10n_it_invoices_data_communication,l10n_it_invoices_data_communication_fatturapa,l10n_it_fatturapa_export_zip</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_19</t>
+    <t xml:space="preserve">z0bug.modules_20</t>
   </si>
   <si>
     <t xml:space="preserve">load_financing</t>
@@ -202,7 +211,7 @@
     <t xml:space="preserve">assigned_bank,account_banking_invoice_financing</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_20</t>
+    <t xml:space="preserve">z0bug.modules_21</t>
   </si>
   <si>
     <t xml:space="preserve">load_fiscal</t>
@@ -214,22 +223,37 @@
     <t xml:space="preserve">partner_bank</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_central_journal,l10n_it_account_balance_report,account_financial_report,accounting_pdf_reports,account_accountant,account_cancel,payment</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.modules_22</t>
   </si>
   <si>
+    <t xml:space="preserve">V&lt;=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_accountant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.modules_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounting_pdf_reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.modules_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_central_journal,l10n_it_account_balance_report,account_financial_report,account_cancel,payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.modules_25</t>
+  </si>
+  <si>
     <t xml:space="preserve">load_intrastat</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_intrastat,l10n_it_intrastat_statement</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_23</t>
+    <t xml:space="preserve">z0bug.modules_26</t>
   </si>
   <si>
     <t xml:space="preserve">load_li</t>
@@ -238,13 +262,13 @@
     <t xml:space="preserve">l10n_it_dichiarazione_intento</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_24</t>
+    <t xml:space="preserve">z0bug.modules_27</t>
   </si>
   <si>
     <t xml:space="preserve">product,stock,purchase</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_25</t>
+    <t xml:space="preserve">z0bug.modules_28</t>
   </si>
   <si>
     <t xml:space="preserve">load_rc</t>
@@ -253,7 +277,7 @@
     <t xml:space="preserve">l10n_it_reverse_charge</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_26</t>
+    <t xml:space="preserve">z0bug.modules_29</t>
   </si>
   <si>
     <t xml:space="preserve">load_riba</t>
@@ -262,25 +286,31 @@
     <t xml:space="preserve">assigned_bank,l10n_it_ricevute_bancarie</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_27</t>
+    <t xml:space="preserve">z0bug.modules_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load_sale*dn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V&gt;=10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product,stock,sale,sale_managent,l10n_it_delivery_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.modules_31</t>
   </si>
   <si>
     <t xml:space="preserve">load_sale*ddt</t>
   </si>
   <si>
+    <t xml:space="preserve">V&lt;14</t>
+  </si>
+  <si>
     <t xml:space="preserve">product,stock,sale,sale_managent,l10n_it_ddt</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load_sale*dn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product,stock,sale,sale_managent,l10n_it_delivery_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.modules_29</t>
+    <t xml:space="preserve">z0bug.modules_32</t>
   </si>
   <si>
     <t xml:space="preserve">load_sct</t>
@@ -289,7 +319,7 @@
     <t xml:space="preserve">assigned_bank,account_banking_sepa_credit_transfer</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_30</t>
+    <t xml:space="preserve">z0bug.modules_33</t>
   </si>
   <si>
     <t xml:space="preserve">load_sdd</t>
@@ -298,19 +328,22 @@
     <t xml:space="preserve">assigned_bank,account_banking_sepa_direct_debit</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.modules_34</t>
+  </si>
+  <si>
     <t xml:space="preserve">load_sp</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_split_payment</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_31</t>
+    <t xml:space="preserve">z0bug.modules_35</t>
   </si>
   <si>
     <t xml:space="preserve">product,account_vat_period_end_statement,l10n_it_vat_registries,l10n_it_vat_statement_communication,l10n_it_vat_statement_split_payment</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.modules_32</t>
+    <t xml:space="preserve">z0bug.modules_36</t>
   </si>
   <si>
     <t xml:space="preserve">load_wh</t>
@@ -426,17 +459,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="164.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.59"/>
   </cols>
@@ -580,6 +613,9 @@
         <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -604,57 +640,57 @@
       <c r="B13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>34</v>
+      <c r="D13" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="E16" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="0" t="s">
         <v>53</v>
       </c>
     </row>
@@ -665,11 +701,8 @@
       <c r="B19" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,6 +715,9 @@
       <c r="D20" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -690,43 +726,49 @@
       <c r="B21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -735,9 +777,9 @@
         <v>72</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>73</v>
       </c>
     </row>
@@ -748,7 +790,7 @@
       <c r="B26" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -768,79 +810,118 @@
         <v>80</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
